--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.37084293381426</v>
+        <v>4.686499</v>
       </c>
       <c r="H2">
-        <v>2.37084293381426</v>
+        <v>14.059497</v>
       </c>
       <c r="I2">
-        <v>0.03138782569211469</v>
+        <v>0.05495643536242917</v>
       </c>
       <c r="J2">
-        <v>0.03138782569211469</v>
+        <v>0.05495643536242918</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.49485045476575</v>
+        <v>33.42823600000001</v>
       </c>
       <c r="N2">
-        <v>1.49485045476575</v>
+        <v>100.284708</v>
       </c>
       <c r="O2">
-        <v>0.2382809542592829</v>
+        <v>0.780497154124833</v>
       </c>
       <c r="P2">
-        <v>0.2382809542592829</v>
+        <v>0.780497154124833</v>
       </c>
       <c r="Q2">
-        <v>3.544055637790411</v>
+        <v>156.661394585764</v>
       </c>
       <c r="R2">
-        <v>3.544055637790411</v>
+        <v>1409.952551271876</v>
       </c>
       <c r="S2">
-        <v>0.007479121058041126</v>
+        <v>0.04289334140122131</v>
       </c>
       <c r="T2">
-        <v>0.007479121058041126</v>
+        <v>0.04289334140122131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.37084293381426</v>
+        <v>4.686499</v>
       </c>
       <c r="H3">
-        <v>2.37084293381426</v>
+        <v>14.059497</v>
       </c>
       <c r="I3">
-        <v>0.03138782569211469</v>
+        <v>0.05495643536242917</v>
       </c>
       <c r="J3">
-        <v>0.03138782569211469</v>
+        <v>0.05495643536242918</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.43848979913666</v>
+        <v>1.598076333333333</v>
       </c>
       <c r="N3">
-        <v>1.43848979913666</v>
+        <v>4.794229</v>
       </c>
       <c r="O3">
-        <v>0.2292969981965456</v>
+        <v>0.0373125889813903</v>
       </c>
       <c r="P3">
-        <v>0.2292969981965456</v>
+        <v>0.0373125889813903</v>
       </c>
       <c r="Q3">
-        <v>3.410433375647044</v>
+        <v>7.489383138090333</v>
       </c>
       <c r="R3">
-        <v>3.410433375647044</v>
+        <v>67.40444824281299</v>
       </c>
       <c r="S3">
-        <v>0.00719713421111831</v>
+        <v>0.002050566884560663</v>
       </c>
       <c r="T3">
-        <v>0.00719713421111831</v>
+        <v>0.002050566884560663</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.37084293381426</v>
+        <v>4.686499</v>
       </c>
       <c r="H4">
-        <v>2.37084293381426</v>
+        <v>14.059497</v>
       </c>
       <c r="I4">
-        <v>0.03138782569211469</v>
+        <v>0.05495643536242917</v>
       </c>
       <c r="J4">
-        <v>0.03138782569211469</v>
+        <v>0.05495643536242918</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.34013829335548</v>
+        <v>7.803102</v>
       </c>
       <c r="N4">
-        <v>3.34013829335548</v>
+        <v>23.409306</v>
       </c>
       <c r="O4">
-        <v>0.5324220475441714</v>
+        <v>0.1821902568937766</v>
       </c>
       <c r="P4">
-        <v>0.5324220475441714</v>
+        <v>0.1821902568937767</v>
       </c>
       <c r="Q4">
-        <v>7.918943270764261</v>
+        <v>36.569229719898</v>
       </c>
       <c r="R4">
-        <v>7.918943270764261</v>
+        <v>329.123067479082</v>
       </c>
       <c r="S4">
-        <v>0.01671157042295525</v>
+        <v>0.0100125270766472</v>
       </c>
       <c r="T4">
-        <v>0.01671157042295525</v>
+        <v>0.0100125270766472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.9064746500334</v>
+        <v>46.42982133333334</v>
       </c>
       <c r="H5">
-        <v>45.9064746500334</v>
+        <v>139.289464</v>
       </c>
       <c r="I5">
-        <v>0.6077603893129158</v>
+        <v>0.5444613292341401</v>
       </c>
       <c r="J5">
-        <v>0.6077603893129158</v>
+        <v>0.5444613292341403</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.49485045476575</v>
+        <v>33.42823600000001</v>
       </c>
       <c r="N5">
-        <v>1.49485045476575</v>
+        <v>100.284708</v>
       </c>
       <c r="O5">
-        <v>0.2382809542592829</v>
+        <v>0.780497154124833</v>
       </c>
       <c r="P5">
-        <v>0.2382809542592829</v>
+        <v>0.780497154124833</v>
       </c>
       <c r="Q5">
-        <v>68.62331450729481</v>
+        <v>1552.067024968502</v>
       </c>
       <c r="R5">
-        <v>68.62331450729481</v>
+        <v>13968.60322471651</v>
       </c>
       <c r="S5">
-        <v>0.1448177255264749</v>
+        <v>0.4249505179982701</v>
       </c>
       <c r="T5">
-        <v>0.1448177255264749</v>
+        <v>0.4249505179982702</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.9064746500334</v>
+        <v>46.42982133333334</v>
       </c>
       <c r="H6">
-        <v>45.9064746500334</v>
+        <v>139.289464</v>
       </c>
       <c r="I6">
-        <v>0.6077603893129158</v>
+        <v>0.5444613292341401</v>
       </c>
       <c r="J6">
-        <v>0.6077603893129158</v>
+        <v>0.5444613292341403</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.43848979913666</v>
+        <v>1.598076333333333</v>
       </c>
       <c r="N6">
-        <v>1.43848979913666</v>
+        <v>4.794229</v>
       </c>
       <c r="O6">
-        <v>0.2292969981965456</v>
+        <v>0.0373125889813903</v>
       </c>
       <c r="P6">
-        <v>0.2292969981965456</v>
+        <v>0.0373125889813903</v>
       </c>
       <c r="Q6">
-        <v>66.03599549839873</v>
+        <v>74.19839863369511</v>
       </c>
       <c r="R6">
-        <v>66.03599549839873</v>
+        <v>667.7855877032559</v>
       </c>
       <c r="S6">
-        <v>0.1393576328922155</v>
+        <v>0.02031526179397489</v>
       </c>
       <c r="T6">
-        <v>0.1393576328922155</v>
+        <v>0.0203152617939749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.9064746500334</v>
+        <v>46.42982133333334</v>
       </c>
       <c r="H7">
-        <v>45.9064746500334</v>
+        <v>139.289464</v>
       </c>
       <c r="I7">
-        <v>0.6077603893129158</v>
+        <v>0.5444613292341401</v>
       </c>
       <c r="J7">
-        <v>0.6077603893129158</v>
+        <v>0.5444613292341403</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.34013829335548</v>
+        <v>7.803102</v>
       </c>
       <c r="N7">
-        <v>3.34013829335548</v>
+        <v>23.409306</v>
       </c>
       <c r="O7">
-        <v>0.5324220475441714</v>
+        <v>0.1821902568937766</v>
       </c>
       <c r="P7">
-        <v>0.5324220475441714</v>
+        <v>0.1821902568937767</v>
       </c>
       <c r="Q7">
-        <v>153.3339738915292</v>
+        <v>362.296631705776</v>
       </c>
       <c r="R7">
-        <v>153.3339738915292</v>
+        <v>3260.669685351984</v>
       </c>
       <c r="S7">
-        <v>0.3235850308942254</v>
+        <v>0.09919554944189508</v>
       </c>
       <c r="T7">
-        <v>0.3235850308942254</v>
+        <v>0.09919554944189513</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.2565201872047</v>
+        <v>34.16029866666667</v>
       </c>
       <c r="H8">
-        <v>27.2565201872047</v>
+        <v>102.480896</v>
       </c>
       <c r="I8">
-        <v>0.3608517849949696</v>
+        <v>0.4005822354034306</v>
       </c>
       <c r="J8">
-        <v>0.3608517849949696</v>
+        <v>0.4005822354034306</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.49485045476575</v>
+        <v>33.42823600000001</v>
       </c>
       <c r="N8">
-        <v>1.49485045476575</v>
+        <v>100.284708</v>
       </c>
       <c r="O8">
-        <v>0.2382809542592829</v>
+        <v>0.780497154124833</v>
       </c>
       <c r="P8">
-        <v>0.2382809542592829</v>
+        <v>0.780497154124833</v>
       </c>
       <c r="Q8">
-        <v>40.74442159717479</v>
+        <v>1141.918525659819</v>
       </c>
       <c r="R8">
-        <v>40.74442159717479</v>
+        <v>10277.26673093837</v>
       </c>
       <c r="S8">
-        <v>0.08598410767476695</v>
+        <v>0.3126532947253415</v>
       </c>
       <c r="T8">
-        <v>0.08598410767476695</v>
+        <v>0.3126532947253415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.2565201872047</v>
+        <v>34.16029866666667</v>
       </c>
       <c r="H9">
-        <v>27.2565201872047</v>
+        <v>102.480896</v>
       </c>
       <c r="I9">
-        <v>0.3608517849949696</v>
+        <v>0.4005822354034306</v>
       </c>
       <c r="J9">
-        <v>0.3608517849949696</v>
+        <v>0.4005822354034306</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.43848979913666</v>
+        <v>1.598076333333333</v>
       </c>
       <c r="N9">
-        <v>1.43848979913666</v>
+        <v>4.794229</v>
       </c>
       <c r="O9">
-        <v>0.2292969981965456</v>
+        <v>0.0373125889813903</v>
       </c>
       <c r="P9">
-        <v>0.2292969981965456</v>
+        <v>0.0373125889813903</v>
       </c>
       <c r="Q9">
-        <v>39.20822624925641</v>
+        <v>54.59076483879822</v>
       </c>
       <c r="R9">
-        <v>39.20822624925641</v>
+        <v>491.316883549184</v>
       </c>
       <c r="S9">
-        <v>0.08274223109321183</v>
+        <v>0.01494676030285474</v>
       </c>
       <c r="T9">
-        <v>0.08274223109321183</v>
+        <v>0.01494676030285474</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.2565201872047</v>
+        <v>34.16029866666667</v>
       </c>
       <c r="H10">
-        <v>27.2565201872047</v>
+        <v>102.480896</v>
       </c>
       <c r="I10">
-        <v>0.3608517849949696</v>
+        <v>0.4005822354034306</v>
       </c>
       <c r="J10">
-        <v>0.3608517849949696</v>
+        <v>0.4005822354034306</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.34013829335548</v>
+        <v>7.803102</v>
       </c>
       <c r="N10">
-        <v>3.34013829335548</v>
+        <v>23.409306</v>
       </c>
       <c r="O10">
-        <v>0.5324220475441714</v>
+        <v>0.1821902568937766</v>
       </c>
       <c r="P10">
-        <v>0.5324220475441714</v>
+        <v>0.1821902568937767</v>
       </c>
       <c r="Q10">
-        <v>91.0405468208991</v>
+        <v>266.556294846464</v>
       </c>
       <c r="R10">
-        <v>91.0405468208991</v>
+        <v>2399.006653618176</v>
       </c>
       <c r="S10">
-        <v>0.1921254462269908</v>
+        <v>0.07298218037523434</v>
       </c>
       <c r="T10">
-        <v>0.1921254462269908</v>
+        <v>0.07298218037523434</v>
       </c>
     </row>
   </sheetData>
